--- a/feature_discrete_TF.xlsx
+++ b/feature_discrete_TF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\학과\3학년 1학기\데이터베이스\23_1_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E1BB90-852D-44F2-B6B5-F73B21610E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFA071B-BB8B-4469-AC04-8E20146E5FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
-  <si>
-    <t>이산형 표현가능</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
   <si>
     <t>최솟값</t>
   </si>
@@ -48,12 +45,6 @@
     <t>Education</t>
   </si>
   <si>
-    <t>EmployeeCount</t>
-  </si>
-  <si>
-    <t>EmployeeNumber</t>
-  </si>
-  <si>
     <t>EnvironmentSatisfaction</t>
   </si>
   <si>
@@ -87,9 +78,6 @@
     <t>RelationshipSatisfactionTrue</t>
   </si>
   <si>
-    <t>StandardHours</t>
-  </si>
-  <si>
     <t>StockOptionLevel</t>
   </si>
   <si>
@@ -114,11 +102,63 @@
     <t>YearsWithCurrManager</t>
   </si>
   <si>
-    <t>NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRUE?</t>
+    <t>자료형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BisunessTravel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>continous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordinary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EducationField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaritalStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OverTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,8 +202,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,394 +490,491 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.296875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>102</v>
+      </c>
+      <c r="E4">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>102</v>
-      </c>
-      <c r="D3">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="b">
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>1009</v>
+      </c>
+      <c r="E17">
+        <v>19999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>2094</v>
+      </c>
+      <c r="E18">
+        <v>26999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19">
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+      <c r="E19">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="b">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="b">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>1009</v>
-      </c>
-      <c r="D13">
-        <v>19999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
+      <c r="E28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="b">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>2094</v>
-      </c>
-      <c r="D14">
-        <v>26999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
+      <c r="E31">
         <v>17</v>
       </c>
-      <c r="B16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19">
-        <v>80</v>
-      </c>
-      <c r="D19">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/feature_discrete_TF.xlsx
+++ b/feature_discrete_TF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\학과\3학년 1학기\데이터베이스\23_1_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFA071B-BB8B-4469-AC04-8E20146E5FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B07E093-92DE-4521-A00F-98D2ECBE497A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>PerformanceRating</t>
   </si>
   <si>
-    <t>RelationshipSatisfactionTrue</t>
-  </si>
-  <si>
     <t>StockOptionLevel</t>
   </si>
   <si>
@@ -110,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BisunessTravel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Department</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,6 +152,14 @@
   </si>
   <si>
     <t>OverTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BusinessTravel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RelationshipSatisfaction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -505,7 +506,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" t="s">
@@ -515,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -523,10 +524,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>18</v>
@@ -537,13 +538,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -554,10 +555,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>102</v>
@@ -568,13 +569,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -585,10 +586,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -602,10 +603,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -613,13 +614,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -630,10 +631,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -641,13 +642,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -655,10 +656,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>30</v>
@@ -672,10 +673,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -686,10 +687,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -697,13 +698,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F14">
         <v>9</v>
@@ -714,10 +715,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -725,13 +726,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -742,10 +743,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17">
         <v>1009</v>
@@ -759,10 +760,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18">
         <v>2094</v>
@@ -776,10 +777,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -790,13 +791,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -804,10 +805,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21">
         <v>11</v>
@@ -821,21 +822,21 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -843,13 +844,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F24">
         <v>4</v>
@@ -857,13 +858,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -874,13 +875,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -891,13 +892,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F27">
         <v>4</v>
@@ -905,13 +906,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -922,13 +923,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -939,13 +940,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -956,13 +957,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D31">
         <v>0</v>
